--- a/RACI-Matrix-updated.xlsx
+++ b/RACI-Matrix-updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahdi\Documents\fall2022\cpsc2350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94ECAE5D-11E8-4DA1-9A33-6911CF1C58B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F29EE1-E6FC-41CE-BC78-25CCA1B24083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27EFA5E0-E7D6-5D4D-8CEE-08069EDD2909}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Project Tasks</t>
   </si>
@@ -951,7 +951,7 @@
   <dimension ref="A1:UM27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1552,9 +1552,15 @@
       <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -11729,7 +11735,7 @@
     </row>
     <row r="27" spans="1:559" ht="23.1" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="C8:J8 D9:J9 C13 E13:J13 C6:J6 D19:J19 C20:J22 C5:F5 C16:J18 C10:J10 C12:J12 C11:D11 F11:J11 C14:D14 F14:J15 D15 D7:J7">
+  <conditionalFormatting sqref="C8:J8 D9:J9 C13 E13:J13 C6:J6 D19:J19 C20:J22 C16:J18 C10:J10 C12:J12 C11:D11 F11:J11 C14:D14 F14:J15 D15 D7:J7 C5:F5">
     <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH("I",C5)))</formula>
     </cfRule>
@@ -11743,7 +11749,7 @@
       <formula>NOT(ISERROR(SEARCH("R",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7 A9:B9 A8:XFD8 D9:XFD9 A13:C13 E13:XFD13 A15:B15 A19:B19 D19:XFD19 A20:XFD23 A24:A1048576 C24:XFD1048576 B25:B1048576 A1:XFD6 A16:XFD18 A10:XFD10 A12:XFD12 A11:D11 F11:XFD11 A14:D14 D15 F14:XFD15 D7:XFD7">
+  <conditionalFormatting sqref="A7:B7 A9:B9 A8:XFD8 D9:XFD9 A13:C13 E13:XFD13 A15:B15 A19:B19 D19:XFD19 A20:XFD23 A24:A1048576 C24:XFD1048576 B25:B1048576 A16:XFD18 A10:XFD10 A12:XFD12 A11:D11 F11:XFD11 A14:D14 D15 F14:XFD15 D7:XFD7 A1:XFD6">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
